--- a/data/trans_orig/Q23_tabaco-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.8542699184185</v>
+        <v>15.83483197363133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.08848717723738</v>
+        <v>16.09783003323865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.28891635362437</v>
+        <v>15.28915663751057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.21556407707351</v>
+        <v>16.22672518091614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.23276144651219</v>
+        <v>16.3168562620301</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.93044425565123</v>
+        <v>17.05697734193903</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.10001007731041</v>
+        <v>17.05627879375336</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.5263551400011</v>
+        <v>17.47022178347485</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.0957370691145</v>
+        <v>16.14038225845047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.58418557471012</v>
+        <v>16.59947286223021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.16301570798796</v>
+        <v>16.15812187113906</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.88338829409165</v>
+        <v>16.87989137894322</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.65139190388059</v>
+        <v>16.66729124867058</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.19102423514455</v>
+        <v>17.14930531236481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.61022119050487</v>
+        <v>16.5828968417461</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.9031475251821</v>
+        <v>17.97445280256895</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.63682596210803</v>
+        <v>17.66575727731853</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.58003342830563</v>
+        <v>18.77216961406993</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>18.81750611328834</v>
+        <v>18.74197799665662</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.26412209491789</v>
+        <v>19.15295454907154</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.81020009138387</v>
+        <v>16.89550743482791</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.54866308382712</v>
+        <v>17.56612854690583</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.27938806992528</v>
+        <v>17.22576363956585</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.17526002911996</v>
+        <v>18.07816444445816</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.84933968891935</v>
+        <v>15.84529540943422</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>15.8281442963982</v>
+        <v>15.74403749998525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.08936107836817</v>
+        <v>16.09193790359721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.34842040964659</v>
+        <v>16.42008978267548</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.04131906079953</v>
+        <v>17.03753457610531</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.76617528003305</v>
+        <v>16.73553557826173</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.83925990839266</v>
+        <v>16.80898763961642</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.15200968325477</v>
+        <v>17.1809606030383</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.34720399716785</v>
+        <v>16.37200754939738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.31266767705711</v>
+        <v>16.3096003765556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.46388370501749</v>
+        <v>16.48177548316671</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.79822184353383</v>
+        <v>16.81955759765246</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.45915347536778</v>
+        <v>16.44452002785232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.58800700477677</v>
+        <v>16.57232988429433</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.80652279464025</v>
+        <v>16.80118533718859</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.38818808487385</v>
+        <v>17.41264177190173</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.6006885180378</v>
+        <v>18.62014540599412</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.28426495155218</v>
+        <v>18.24217921628981</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.94584232477643</v>
+        <v>18.01174925934596</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.29790786515851</v>
+        <v>18.41837003909139</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.00396547365299</v>
+        <v>17.04796363038277</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.11577545373014</v>
+        <v>17.06007888890521</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.08671483801281</v>
+        <v>17.10995447242757</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.57891551597824</v>
+        <v>17.53951548938104</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.74366744794922</v>
+        <v>15.76593284906632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.30849871242914</v>
+        <v>16.28420339808086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.54747453050122</v>
+        <v>16.52915849886929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.62326513877472</v>
+        <v>15.63932284728753</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.12692006444707</v>
+        <v>17.1380702895993</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.97059146188849</v>
+        <v>16.99041674660114</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.83423247057106</v>
+        <v>16.90702103954265</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.49412783480925</v>
+        <v>16.53145665196324</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.36054807188469</v>
+        <v>16.39484295958177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16.69148882664222</v>
+        <v>16.69593935414956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.79115810944712</v>
+        <v>16.84001046185406</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>16.12145319961098</v>
+        <v>16.11904237865583</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.65226587861939</v>
+        <v>16.69154444085251</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.2965142613795</v>
+        <v>17.27424722133447</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.8865043121898</v>
+        <v>17.96302611403162</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.63151015788498</v>
+        <v>16.62752227971738</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.45111766660687</v>
+        <v>19.46913428099507</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.57364452512846</v>
+        <v>18.55606995700564</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.55833168950667</v>
+        <v>18.63470078486636</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.31443780969483</v>
+        <v>17.32253188726021</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.40269554758917</v>
+        <v>17.46006446750431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.56883392605505</v>
+        <v>17.51149385326016</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.87046746934659</v>
+        <v>17.92064770808012</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.78995352755883</v>
+        <v>16.81580379702067</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.17317514421497</v>
+        <v>16.1362090812838</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.99191788921148</v>
+        <v>15.9648139384555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.07622840693352</v>
+        <v>16.09318659663771</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.6607081820627</v>
+        <v>16.65595787272939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.03634227861464</v>
+        <v>17.03182041496581</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.16824384103935</v>
+        <v>18.18508509620375</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.31455825092095</v>
+        <v>17.39827487901718</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.10180906651268</v>
+        <v>17.11157343787635</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.62788323516757</v>
+        <v>16.60936276212517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.02990348367179</v>
+        <v>17.05224665085848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.70791003875246</v>
+        <v>16.69994409139826</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>16.96249801635058</v>
+        <v>16.98201558948623</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.86207210884459</v>
+        <v>16.79688524206066</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.9368245049442</v>
+        <v>16.97360383441732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.29584828386643</v>
+        <v>17.32199692864427</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.40371595962861</v>
+        <v>17.40889925192126</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.23827952317943</v>
+        <v>18.23489573508635</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>20.80707492874304</v>
+        <v>20.84016283784091</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.80916613545333</v>
+        <v>18.82750248783758</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.04534664784421</v>
+        <v>18.05693076690741</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.26280603355338</v>
+        <v>17.25352398088775</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.30495081379681</v>
+        <v>18.37249689454758</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.69050783116476</v>
+        <v>17.62611112379789</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.54266824983812</v>
+        <v>17.56027646474525</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>16.80309808022144</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>17.54106569150298</v>
+        <v>17.54106569150297</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>16.92388344562521</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.30448180700598</v>
+        <v>16.31449865608611</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.09089132271394</v>
+        <v>16.02372708653924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.33651499101803</v>
+        <v>16.31547575417867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.05145894707741</v>
+        <v>17.05360804530383</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>16.1793353455942</v>
+        <v>16.3276521333424</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.44280770734049</v>
+        <v>16.52874292925682</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.21663430733635</v>
+        <v>16.22124021992842</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.90102894660406</v>
+        <v>17.00542295861376</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.4849793704354</v>
+        <v>16.4682025059488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16.35384602500262</v>
+        <v>16.3632447056201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.40418050322514</v>
+        <v>16.4024913540045</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>17.20701222635762</v>
+        <v>17.1923941032086</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.4257569012879</v>
+        <v>17.41027435895381</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.81846359204268</v>
+        <v>17.70138888786951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.67543176970913</v>
+        <v>17.66511576162829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.77577343481541</v>
+        <v>18.71912316368027</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.43812706395159</v>
+        <v>18.50265364786843</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.00982775063495</v>
+        <v>17.98683012996888</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.76187178266184</v>
+        <v>17.6561346605605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.44191502191686</v>
+        <v>18.44460153927055</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.58568848167994</v>
+        <v>17.56646056757699</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.52020254778629</v>
+        <v>17.48131969864036</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.33642807636928</v>
+        <v>17.35737869591417</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>18.33737347896698</v>
+        <v>18.35037791904971</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>18.04498683090512</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>16.31290149351136</v>
+        <v>16.31290149351137</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>16.46597609520557</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.8948149548719</v>
+        <v>15.87522754462042</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.91767477852595</v>
+        <v>15.85241831557379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.54820538280688</v>
+        <v>16.57507956687965</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15.79190877121048</v>
+        <v>15.80711667143972</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>16.40566911011577</v>
+        <v>16.42434774210271</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.06963997690388</v>
+        <v>17.0462354578615</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>17.30793901880295</v>
+        <v>17.23602714539997</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>15.88856302101644</v>
+        <v>15.91108382572336</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>16.16895919849169</v>
+        <v>16.14392456326838</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16.50371312675024</v>
+        <v>16.48390176210201</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16.98707137154052</v>
+        <v>16.99312976329348</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>15.93525603195429</v>
+        <v>15.93649368764264</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.88772404658464</v>
+        <v>16.80494697185067</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.03704089741368</v>
+        <v>17.09102715275463</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.07067617754722</v>
+        <v>18.04388497464911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.14320767691189</v>
+        <v>17.13913407898012</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>17.68965796289257</v>
+        <v>17.6727262498838</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.44225983343012</v>
+        <v>19.47206767643374</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>19.38704676502284</v>
+        <v>19.46089939680249</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>16.82540559388918</v>
+        <v>16.81560593047497</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>16.8856368128451</v>
+        <v>16.89676822299891</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17.71045233244395</v>
+        <v>17.68268467408855</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18.24320543018768</v>
+        <v>18.1742627029724</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>16.80101955624745</v>
+        <v>16.8156685971946</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.05239006672281</v>
+        <v>16.05577880322118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.23271218308619</v>
+        <v>16.22745984166611</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.02307014352227</v>
+        <v>16.04048123612531</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.50427987771361</v>
+        <v>16.50729448435354</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.3910382901149</v>
+        <v>17.3667747919393</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.92582557347326</v>
+        <v>16.91646671280852</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>16.78753867169281</v>
+        <v>16.8038157846196</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>17.67744379876086</v>
+        <v>17.66403099016115</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.67997996039221</v>
+        <v>16.69846385395789</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16.61570243435206</v>
+        <v>16.5742664224922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16.44074938118622</v>
+        <v>16.45137793005084</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>17.1806290659393</v>
+        <v>17.1901373252975</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.80395360122632</v>
+        <v>16.81582174523544</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.89325654019708</v>
+        <v>16.87556313048364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.66686920425344</v>
+        <v>16.61636927852744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.4253650775076</v>
+        <v>17.44282555880715</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>19.1982068700887</v>
+        <v>19.14152498083541</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.00177997746055</v>
+        <v>17.97052756099431</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.79250962412436</v>
+        <v>17.86337461716042</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.78440389879613</v>
+        <v>18.78377870489311</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.56404021552703</v>
+        <v>17.54232261596599</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.19493328370417</v>
+        <v>17.15091650876526</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17.03083847478803</v>
+        <v>17.0318227933531</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.87221769317543</v>
+        <v>17.94486237818237</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.16964082288028</v>
+        <v>16.15882866172657</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>16.33069124441029</v>
+        <v>16.34316032291105</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.00101193726372</v>
+        <v>16.02743452038823</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16.10489742019108</v>
+        <v>16.09657591160503</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>16.68323489003894</v>
+        <v>16.70618794835617</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>17.05428964081079</v>
+        <v>17.06337231965308</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>17.54827087257491</v>
+        <v>17.59944055681525</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>16.64554160568963</v>
+        <v>16.64914873916358</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>16.44939301389228</v>
+        <v>16.4332077177833</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16.70933497320047</v>
+        <v>16.7004438700753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16.80615138649269</v>
+        <v>16.83290851917393</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>16.37145765243728</v>
+        <v>16.35465594796985</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.07313867641165</v>
+        <v>17.0371194960239</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.90531110893858</v>
+        <v>16.89524006214234</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.76446311382031</v>
+        <v>16.8163371736774</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.58795006625878</v>
+        <v>16.57675609353236</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>17.60244903814541</v>
+        <v>17.59114169609693</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>18.2749171417183</v>
+        <v>18.23674789230801</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>19.0850745903558</v>
+        <v>19.01256397715252</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>17.434881575183</v>
+        <v>17.37759733070411</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.10162486991089</v>
+        <v>17.08976902893415</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17.3111427223832</v>
+        <v>17.29608648428585</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17.60128945092303</v>
+        <v>17.57761365235054</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>16.75496427986264</v>
+        <v>16.74453900848724</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>17.66984393032925</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>17.53061088042138</v>
+        <v>17.53061088042137</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>16.77804922315709</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.22920054349893</v>
+        <v>16.21783536490694</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.35194353082824</v>
+        <v>16.3438807781571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16.30614907733139</v>
+        <v>16.33745439408176</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16.54596215160961</v>
+        <v>16.53927229754406</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>17.22230232453258</v>
+        <v>17.25534252348733</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.42699215738831</v>
+        <v>17.43042059133415</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>17.42117170027976</v>
+        <v>17.40700239920766</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>17.3285338063621</v>
+        <v>17.33546682291916</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>16.64562776837832</v>
+        <v>16.64481596543309</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16.81371162878652</v>
+        <v>16.81812861544475</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16.82876982755455</v>
+        <v>16.84183304358562</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>16.89608859123341</v>
+        <v>16.92379859856746</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.54254572415625</v>
+        <v>16.52953715336525</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.66404646463093</v>
+        <v>16.65634425964861</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.68353226631985</v>
+        <v>16.68390152719389</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.87265854055461</v>
+        <v>16.88980594807923</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.81001806274439</v>
+        <v>17.77495109125583</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.97024097680015</v>
+        <v>18.00906065574717</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.95419264624918</v>
+        <v>17.97939405880298</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>17.7476208816438</v>
+        <v>17.76069064372026</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>16.9416177959158</v>
+        <v>16.93191998849738</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17.11839882650055</v>
+        <v>17.12416008301145</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17.13598927538114</v>
+        <v>17.14172695267903</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>17.17628829633554</v>
+        <v>17.1861778584389</v>
       </c>
     </row>
     <row r="31">
